--- a/ScenarioTwo/IdentityPOC_ScenarioTwo.xlsx
+++ b/ScenarioTwo/IdentityPOC_ScenarioTwo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shraddha Agrawal\AAD POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\identity-pocs\ScenarioTwo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{DC73FCBE-D843-4EBF-90DB-23EB83F311F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>User Story</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>AssignedTo</t>
+    <t>Assigned To</t>
   </si>
   <si>
     <t>Status</t>
@@ -41,89 +41,106 @@
     <t># Days</t>
   </si>
   <si>
+    <t>Manual Setup</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Devlopment</t>
+  </si>
+  <si>
+    <t>Create users in active directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable authentication\authorization settings for web app </t>
+  </si>
+  <si>
+    <t>Test with created user (positive test case)</t>
+  </si>
+  <si>
+    <t>Test with unauthorized user(negative test case)</t>
+  </si>
+  <si>
+    <t>create automation for deployment process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM template for web app </t>
+  </si>
+  <si>
+    <t>Create powershell script to create active directory application</t>
+  </si>
+  <si>
+    <t>Create powershell script to create users in active directory</t>
+  </si>
+  <si>
+    <t>implement static page for web app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement login page for web app </t>
+  </si>
+  <si>
+    <t>create demo(Test positive and negative test case)</t>
+  </si>
+  <si>
+    <t>document demo steps and update wiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy two web applications </t>
+  </si>
+  <si>
     <t>Not Started</t>
   </si>
   <si>
+    <t>Implement logic for user authentication in web app II</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Shraddha</t>
-  </si>
-  <si>
-    <t>shraddha</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>create automation for deployment process</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Mrunal</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implement login page for web app </t>
-  </si>
-  <si>
-    <t>implement static page for web app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement logic for user authentication </t>
-  </si>
-  <si>
-    <t>create demo(Test positive and negative test case)</t>
-  </si>
-  <si>
-    <t>Create powershell script to create users in active directory</t>
-  </si>
-  <si>
-    <t>Create powershell script to create active directory application</t>
-  </si>
-  <si>
-    <t>Manual Setup</t>
-  </si>
-  <si>
-    <t>Acceptace Criteria-&gt;Authrozied NBME employee will able to login to web app</t>
-  </si>
-  <si>
-    <t>Create users in active directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deploy web application </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable authentication\authorization settings for web app </t>
-  </si>
-  <si>
-    <t>Test with created user (positive test case)</t>
-  </si>
-  <si>
-    <t>Test with unauthorized user(negative test case)</t>
-  </si>
-  <si>
-    <t>document demo steps and update wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM template for web app </t>
-  </si>
-  <si>
-    <t>Identity POC-scenario one</t>
+    <t>Mahuya</t>
+  </si>
+  <si>
+    <t>Aniket</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The authorised users will be able to access both applications</t>
+    </r>
+  </si>
+  <si>
+    <t>IdentityPOC_ScenarioTwo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,22 +165,28 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,18 +196,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,12 +225,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -211,7 +252,118 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="6"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -221,85 +373,188 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="6"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="6"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Closed" xfId="2" xr:uid="{EA083CE5-CEC1-4496-8270-12EC6E75575A}"/>
+    <cellStyle name="Closed" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Not Started" xfId="1" xr:uid="{3FD380C8-E235-44B5-803B-5EA31C093695}"/>
+    <cellStyle name="Not Started" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -317,12 +572,98 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="6"/>
+          <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -344,9 +685,19 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6"/>
-          <bgColor theme="6"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,14 +713,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADB55A22-7375-4CB4-93BF-FFB2378653F0}" name="Table5" displayName="Table5" ref="B5:F26" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="B5:F26" xr:uid="{C601C19F-DE62-4D49-9454-4EB6B27ED707}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="E5:I27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="E5:I27"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E738B95F-F10A-4E6D-A8C2-0E3C92817BA8}" name="User Story"/>
-    <tableColumn id="2" xr3:uid="{427452B4-3151-43E4-B410-62A7AFA915C7}" name="Tasks"/>
-    <tableColumn id="5" xr3:uid="{AD1E79EF-8D11-4D88-B22C-51D1A8EDEAA7}" name="AssignedTo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D858F77B-889F-443A-9DBB-F3891C1D08FA}" name="Status"/>
-    <tableColumn id="4" xr3:uid="{E99CFC45-C62A-48A5-BAE4-6E5C55015C5D}" name="# Days" dataDxfId="0"/>
+    <tableColumn id="1" name="User Story" dataDxfId="4"/>
+    <tableColumn id="2" name="Tasks" dataDxfId="3"/>
+    <tableColumn id="5" name="Assigned To" dataDxfId="2"/>
+    <tableColumn id="3" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" name="# Days" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,307 +1022,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836AD26E-74F7-48DA-89C2-1EC87F467D43}">
-  <dimension ref="B2:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="2" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="48"/>
+      <c r="F3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="11"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="11"/>
+      <c r="E5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+      <c r="E6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="41">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="4:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="I7" s="42"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="11"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="44">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="4:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="4:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="11"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="11"/>
+      <c r="E24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="44">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="P7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="P8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="H25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="4:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="11"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="G26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="11"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E26 E6:E17" xr:uid="{89844DEE-34DC-48FD-AA58-8964AF90B0CD}">
-      <formula1>$P$6:$P$8</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+      <formula1>$S$6:$S$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H27">
+      <formula1>"Not Started, Active, Closed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27">
+      <formula1>"Aniket, Mrunal, Mahuya"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/ScenarioTwo/IdentityPOC_ScenarioTwo.xlsx
+++ b/ScenarioTwo/IdentityPOC_ScenarioTwo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Implement logic for user authentication in web app II</t>
   </si>
   <si>
     <t>Active</t>
@@ -135,11 +132,14 @@
   <si>
     <t>IdentityPOC_ScenarioTwo</t>
   </si>
+  <si>
+    <t>Implement logic for user authentication in web app I &amp; II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,29 +493,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Closed" xfId="2"/>
+    <cellStyle name="Closed" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Not Started" xfId="1"/>
+    <cellStyle name="Not Started" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -713,14 +713,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="E5:I27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="E5:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="E5:I27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="E5:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="User Story" dataDxfId="4"/>
-    <tableColumn id="2" name="Tasks" dataDxfId="3"/>
-    <tableColumn id="5" name="Assigned To" dataDxfId="2"/>
-    <tableColumn id="3" name="Status" dataDxfId="1"/>
-    <tableColumn id="4" name="# Days" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tasks" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assigned To" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="# Days" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1022,11 +1022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,22 +1039,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E3" s="48"/>
-      <c r="F3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="11"/>
@@ -1062,7 +1062,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>22</v>
@@ -1119,10 +1119,10 @@
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="11"/>
@@ -1134,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="11"/>
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>22</v>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>22</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="11"/>
@@ -1216,10 +1216,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="11"/>
@@ -1228,10 +1228,10 @@
       <c r="D16" s="11"/>
       <c r="E16" s="21"/>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>22</v>
@@ -1257,7 +1257,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11"/>
     </row>
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>22</v>
@@ -1283,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>22</v>
@@ -1298,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>22</v>
@@ -1313,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>22</v>
@@ -1350,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>22</v>
@@ -1397,13 +1397,13 @@
     <mergeCell ref="F3:H3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$S$6:$S$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not Started, Active, Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Aniket, Mrunal, Mahuya"</formula1>
     </dataValidation>
   </dataValidations>
